--- a/biology/Botanique/Baronne_de_Prailly/Baronne_de_Prailly.xlsx
+++ b/biology/Botanique/Baronne_de_Prailly/Baronne_de_Prailly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Baronne de Prailly' est un cultivar de rosier hybride remontant obtenu en 1871 par le rosiériste français Jean Liabaud[1]. Il doit son nom à la baronne de Prailly, née Hortense Chevandier de Valdrome (1813-1879), propriétaire à Hyères de la villa des Palmiers[2],[3] dont le parc avec son jardin exotique est réputé. Ce cultivar est toujours présent dans les catalogues destinés aux amateurs de roses anciennes.
+'Baronne de Prailly' est un cultivar de rosier hybride remontant obtenu en 1871 par le rosiériste français Jean Liabaud. Il doit son nom à la baronne de Prailly, née Hortense Chevandier de Valdrome (1813-1879), propriétaire à Hyères de la villa des Palmiers, dont le parc avec son jardin exotique est réputé. Ce cultivar est toujours présent dans les catalogues destinés aux amateurs de roses anciennes.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride remontant présente de grandes fleurs de rose vif à lilas clair[4], aux pétales régulièrement imbriqués avec parfois un fin liséré blanc ; elles sont agréablement parfumées[5], très pleines et globuleuses sur des tiges plutôt flexibles. Son buisson moyennement vigoureux et érigé montre un feuillage vert clair et s'élève à 120 cm.
-Le rosier 'Baronne de Prailly' est issu d'un semis de 'Victor Verdier'[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride remontant présente de grandes fleurs de rose vif à lilas clair, aux pétales régulièrement imbriqués avec parfois un fin liséré blanc ; elles sont agréablement parfumées, très pleines et globuleuses sur des tiges plutôt flexibles. Son buisson moyennement vigoureux et érigé montre un feuillage vert clair et s'élève à 120 cm.
+Le rosier 'Baronne de Prailly' est issu d'un semis de 'Victor Verdier'.
 </t>
         </is>
       </c>
